--- a/stock_historical_data/1d/INDIAMART.NS.xlsx
+++ b/stock_historical_data/1d/INDIAMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1264"/>
+  <dimension ref="A1:R1268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70469,7 +70469,9 @@
       <c r="Q1250" t="n">
         <v>0</v>
       </c>
-      <c r="R1250" t="inlineStr"/>
+      <c r="R1250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1251">
       <c r="A1251" s="2" t="n">
@@ -70523,7 +70525,9 @@
       <c r="Q1251" t="n">
         <v>0</v>
       </c>
-      <c r="R1251" t="inlineStr"/>
+      <c r="R1251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1252">
       <c r="A1252" s="2" t="n">
@@ -70577,7 +70581,9 @@
       <c r="Q1252" t="n">
         <v>0</v>
       </c>
-      <c r="R1252" t="inlineStr"/>
+      <c r="R1252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1253">
       <c r="A1253" s="2" t="n">
@@ -70631,7 +70637,9 @@
       <c r="Q1253" t="n">
         <v>0</v>
       </c>
-      <c r="R1253" t="inlineStr"/>
+      <c r="R1253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1254">
       <c r="A1254" s="2" t="n">
@@ -70685,7 +70693,9 @@
       <c r="Q1254" t="n">
         <v>0</v>
       </c>
-      <c r="R1254" t="inlineStr"/>
+      <c r="R1254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1255">
       <c r="A1255" s="2" t="n">
@@ -70739,7 +70749,9 @@
       <c r="Q1255" t="n">
         <v>0</v>
       </c>
-      <c r="R1255" t="inlineStr"/>
+      <c r="R1255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1256">
       <c r="A1256" s="2" t="n">
@@ -70793,7 +70805,9 @@
       <c r="Q1256" t="n">
         <v>0</v>
       </c>
-      <c r="R1256" t="inlineStr"/>
+      <c r="R1256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1257">
       <c r="A1257" s="2" t="n">
@@ -70847,7 +70861,9 @@
       <c r="Q1257" t="n">
         <v>0</v>
       </c>
-      <c r="R1257" t="inlineStr"/>
+      <c r="R1257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1258">
       <c r="A1258" s="2" t="n">
@@ -70893,7 +70909,7 @@
         <v>32</v>
       </c>
       <c r="O1258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1258" t="n">
         <v>0</v>
@@ -70901,7 +70917,9 @@
       <c r="Q1258" t="n">
         <v>0</v>
       </c>
-      <c r="R1258" t="inlineStr"/>
+      <c r="R1258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1259">
       <c r="A1259" s="2" t="n">
@@ -70955,7 +70973,9 @@
       <c r="Q1259" t="n">
         <v>0</v>
       </c>
-      <c r="R1259" t="inlineStr"/>
+      <c r="R1259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1260">
       <c r="A1260" s="2" t="n">
@@ -71009,7 +71029,9 @@
       <c r="Q1260" t="n">
         <v>0</v>
       </c>
-      <c r="R1260" t="inlineStr"/>
+      <c r="R1260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1261">
       <c r="A1261" s="2" t="n">
@@ -71063,7 +71085,9 @@
       <c r="Q1261" t="n">
         <v>0</v>
       </c>
-      <c r="R1261" t="inlineStr"/>
+      <c r="R1261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1262">
       <c r="A1262" s="2" t="n">
@@ -71117,7 +71141,9 @@
       <c r="Q1262" t="n">
         <v>0</v>
       </c>
-      <c r="R1262" t="inlineStr"/>
+      <c r="R1262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" s="2" t="n">
@@ -71171,7 +71197,9 @@
       <c r="Q1263" t="n">
         <v>0</v>
       </c>
-      <c r="R1263" t="inlineStr"/>
+      <c r="R1263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1264">
       <c r="A1264" s="2" t="n">
@@ -71225,7 +71253,225 @@
       <c r="Q1264" t="n">
         <v>0</v>
       </c>
-      <c r="R1264" t="inlineStr"/>
+      <c r="R1264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>2709.75</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>2721.550048828125</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>2662</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>2673.35009765625</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>2673.35009765625</v>
+      </c>
+      <c r="G1265" t="n">
+        <v>200630</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1265" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>2681</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>2779.85009765625</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>2676.300048828125</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>2748.699951171875</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>2748.699951171875</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>203254</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1266" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>2770</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>2867</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>2749</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>2852.550048828125</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>2852.550048828125</v>
+      </c>
+      <c r="G1267" t="n">
+        <v>295080</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1267" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>2875</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>2917</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>2860</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>2905.75</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>2905.75</v>
+      </c>
+      <c r="G1268" t="n">
+        <v>378243</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1268" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1268" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/INDIAMART.NS.xlsx
+++ b/stock_historical_data/1d/INDIAMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1268"/>
+  <dimension ref="A1:R1317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7638,7 +7638,7 @@
         <v>2</v>
       </c>
       <c r="R128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -9934,7 +9934,7 @@
         <v>2</v>
       </c>
       <c r="R169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -15422,7 +15422,7 @@
         <v>1</v>
       </c>
       <c r="R267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -18054,7 +18054,7 @@
         <v>1</v>
       </c>
       <c r="R314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -19062,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="R332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -20630,7 +20630,7 @@
         <v>0</v>
       </c>
       <c r="R360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="R408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="R441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -26846,7 +26846,7 @@
         <v>0</v>
       </c>
       <c r="R471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -27686,7 +27686,7 @@
         <v>1</v>
       </c>
       <c r="R486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -29590,7 +29590,7 @@
         <v>1</v>
       </c>
       <c r="R520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -30094,7 +30094,7 @@
         <v>0</v>
       </c>
       <c r="R529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -31438,7 +31438,7 @@
         <v>0</v>
       </c>
       <c r="R553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -39614,7 +39614,7 @@
         <v>2</v>
       </c>
       <c r="R699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700">
@@ -46782,7 +46782,7 @@
         <v>0</v>
       </c>
       <c r="R827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -47734,7 +47734,7 @@
         <v>0</v>
       </c>
       <c r="R844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845">
@@ -49302,7 +49302,7 @@
         <v>0</v>
       </c>
       <c r="R872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873">
@@ -50814,7 +50814,7 @@
         <v>1</v>
       </c>
       <c r="R899" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -59214,7 +59214,7 @@
         <v>2</v>
       </c>
       <c r="R1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050">
@@ -63022,7 +63022,7 @@
         <v>2</v>
       </c>
       <c r="R1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118">
@@ -66718,7 +66718,7 @@
         <v>2</v>
       </c>
       <c r="R1183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184">
@@ -67502,7 +67502,7 @@
         <v>0</v>
       </c>
       <c r="R1197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198">
@@ -67950,7 +67950,7 @@
         <v>2</v>
       </c>
       <c r="R1205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1206">
@@ -69182,7 +69182,7 @@
         <v>0</v>
       </c>
       <c r="R1227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228">
@@ -71309,7 +71309,9 @@
       <c r="Q1265" t="n">
         <v>2</v>
       </c>
-      <c r="R1265" t="inlineStr"/>
+      <c r="R1265" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1266">
       <c r="A1266" s="2" t="n">
@@ -71363,7 +71365,9 @@
       <c r="Q1266" t="n">
         <v>0</v>
       </c>
-      <c r="R1266" t="inlineStr"/>
+      <c r="R1266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1267">
       <c r="A1267" s="2" t="n">
@@ -71417,7 +71421,9 @@
       <c r="Q1267" t="n">
         <v>0</v>
       </c>
-      <c r="R1267" t="inlineStr"/>
+      <c r="R1267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1268">
       <c r="A1268" s="2" t="n">
@@ -71471,7 +71477,2655 @@
       <c r="Q1268" t="n">
         <v>0</v>
       </c>
-      <c r="R1268" t="inlineStr"/>
+      <c r="R1268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>2920.449951171875</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>2992.89990234375</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>2882.449951171875</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>2911</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>2911</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>492515</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1269" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1269" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>2926.699951171875</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>2977.89990234375</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>2907.199951171875</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>2915.449951171875</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>2915.449951171875</v>
+      </c>
+      <c r="G1270" t="n">
+        <v>202021</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1270" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>2925</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>2934.89990234375</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>2884.550048828125</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>2896.64990234375</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>2896.64990234375</v>
+      </c>
+      <c r="G1271" t="n">
+        <v>208660</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1271" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>2898</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>3029.800048828125</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>2898</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>2961.35009765625</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>2961.35009765625</v>
+      </c>
+      <c r="G1272" t="n">
+        <v>450936</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1272" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>2988.25</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>3008.89990234375</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>2967.050048828125</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>2994.25</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>2994.25</v>
+      </c>
+      <c r="G1273" t="n">
+        <v>245703</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1273" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>2995</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>3067.550048828125</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>2982.85009765625</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>3044.75</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>3044.75</v>
+      </c>
+      <c r="G1274" t="n">
+        <v>553655</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1274" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>3050</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>3050</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>2968</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>3020.25</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>3020.25</v>
+      </c>
+      <c r="G1275" t="n">
+        <v>227954</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1275" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>3025.050048828125</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>3057</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>2985</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>3000.050048828125</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>3000.050048828125</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>134044</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1276" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1276" t="inlineStr"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>3009</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>3011.5</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>2939.800048828125</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>2969.300048828125</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>2969.300048828125</v>
+      </c>
+      <c r="G1277" t="n">
+        <v>257590</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1277" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>2969</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>3066</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>2964.85009765625</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>3024.449951171875</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>3024.449951171875</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>439249</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1278" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>3009.89990234375</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>3122</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>2960.300048828125</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>3054.699951171875</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>3054.699951171875</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>838825</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1279" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>3067.949951171875</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>3084.35009765625</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>3013.550048828125</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>3029.14990234375</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>3029.14990234375</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>138685</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1280" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>3012.199951171875</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>3025</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>2963.449951171875</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>2983.800048828125</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>2983.800048828125</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>167359</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1281" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>2996</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>3050</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>2976.10009765625</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>3039.050048828125</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>3039.050048828125</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>407276</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1282" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>3076.5</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>3142.800048828125</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>3034.300048828125</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>3127.949951171875</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>3127.949951171875</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>482916</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1283" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>3140</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>3145</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>3080</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>3103</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>3103</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>205051</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1284" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>3117.949951171875</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>3145.14990234375</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>3101</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>3128.75</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>3128.75</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>85185</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1285" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>3143</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>3176</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>3125</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>3128.699951171875</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>3128.699951171875</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>137282</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1286" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1286" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>3140</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>3145.60009765625</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>3096.14990234375</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>3111.300048828125</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>3111.300048828125</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>133790</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1287" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1287" t="inlineStr"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>3115</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>3121.39990234375</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>3022.050048828125</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>3044.800048828125</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>3044.800048828125</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>145185</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1288" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1288" t="inlineStr"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>3059.89990234375</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>3059.89990234375</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>2966.050048828125</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>2989.050048828125</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>2989.050048828125</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>152536</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1289" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1289" t="inlineStr"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>3004.949951171875</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>3049.699951171875</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>2918.050048828125</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>2985.800048828125</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>2985.800048828125</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>198884</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1290" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>3006.699951171875</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>3092</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>2991.050048828125</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>3055.10009765625</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>3055.10009765625</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>200751</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1291" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>3031.5</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>3091</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>3025.699951171875</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>3042.75</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>3042.75</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>106225</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1292" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>3045</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>3055</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>2971.60009765625</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>2977.89990234375</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>2977.89990234375</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>243162</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1293" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>2977.89990234375</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>3004.75</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>2907.14990234375</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>2926.14990234375</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>2926.14990234375</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>247661</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1294" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1294" t="inlineStr"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>2936.5</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>2960</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>2875.89990234375</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>2889.5</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>2889.5</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>364716</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1295" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>2890</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>2950.89990234375</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>2890</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>2918.199951171875</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>2918.199951171875</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>89633</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1296" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>2918.199951171875</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>2966.35009765625</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>2900.050048828125</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>2951.800048828125</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>2951.800048828125</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>109003</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1297" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1297" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>2970</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>3021</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>2960.050048828125</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>2998.550048828125</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>2998.550048828125</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>256779</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1298" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>2975</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>2985.5</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>2874.5</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>2913.10009765625</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>2913.10009765625</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>148198</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1299" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>2925.14990234375</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>2935.14990234375</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>2826.10009765625</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>2840.89990234375</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>2840.89990234375</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>76146</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1300" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>2877.949951171875</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>2884</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>2758</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>2779.14990234375</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>2779.14990234375</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>160107</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1301" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>2794</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>2982.449951171875</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>2770.050048828125</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>2961.14990234375</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>2961.14990234375</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>445398</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1302" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>2980</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>3039.75</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>2972.050048828125</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>2998.949951171875</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>2998.949951171875</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>307190</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1303" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>3020</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>3022.5</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>2982.35009765625</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>2993.300048828125</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>2993.300048828125</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>97420</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1304" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>2990.64990234375</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>3021.199951171875</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>2985.050048828125</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>3011.39990234375</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>3011.39990234375</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>106727</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1305" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>3011.39990234375</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>3100</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>2960.64990234375</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>3030</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>3030</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>590863</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1306" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1306" t="inlineStr"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>3075</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>3127.60009765625</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>3030</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>3040.550048828125</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>3040.550048828125</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>408780</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1307" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1307" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>3021</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>3101</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>3007.050048828125</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>3045.14990234375</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>3045.14990234375</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>462936</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1308" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>3070.35009765625</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>3074.949951171875</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>2980.050048828125</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>3038.050048828125</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>3038.050048828125</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>528694</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1309" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>3010</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>3066.60009765625</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>2969.050048828125</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>3013.14990234375</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>3013.14990234375</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>302849</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1310" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1310" t="inlineStr"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>2879.050048828125</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>2879.050048828125</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>2447.5</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>2508.60009765625</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>2508.60009765625</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>5190298</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1311" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>2524.89990234375</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>2572.35009765625</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>2485</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>2503.949951171875</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>2503.949951171875</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>1299721</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1312" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1312" t="inlineStr"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>2503.949951171875</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>2505</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>2450</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>2485.39990234375</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>2485.39990234375</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>493950</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1313" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>2479.949951171875</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>2517.550048828125</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>2454</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>2494.39990234375</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>2494.39990234375</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>268295</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1314" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>2416</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>2438.75</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>2438.75</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>278182</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1315" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>2443.949951171875</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>2527.949951171875</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>2401</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>2515.949951171875</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>2515.949951171875</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>351753</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1316" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>2516</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>2576.85009765625</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>2486.75</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>2553.800048828125</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>2553.800048828125</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>295740</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1317" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1317" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/INDIAMART.NS.xlsx
+++ b/stock_historical_data/1d/INDIAMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1317"/>
+  <dimension ref="A1:R1340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7638,7 +7638,7 @@
         <v>2</v>
       </c>
       <c r="R128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -9934,7 +9934,7 @@
         <v>2</v>
       </c>
       <c r="R169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -15422,7 +15422,7 @@
         <v>1</v>
       </c>
       <c r="R267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -18054,7 +18054,7 @@
         <v>1</v>
       </c>
       <c r="R314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -19062,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="R332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -20630,7 +20630,7 @@
         <v>0</v>
       </c>
       <c r="R360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="R408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409">
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="R441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -26846,7 +26846,7 @@
         <v>0</v>
       </c>
       <c r="R471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -27686,7 +27686,7 @@
         <v>1</v>
       </c>
       <c r="R486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -29590,7 +29590,7 @@
         <v>1</v>
       </c>
       <c r="R520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -30094,7 +30094,7 @@
         <v>0</v>
       </c>
       <c r="R529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530">
@@ -31438,7 +31438,7 @@
         <v>0</v>
       </c>
       <c r="R553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554">
@@ -39614,7 +39614,7 @@
         <v>2</v>
       </c>
       <c r="R699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
@@ -46782,7 +46782,7 @@
         <v>0</v>
       </c>
       <c r="R827" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828">
@@ -47734,7 +47734,7 @@
         <v>0</v>
       </c>
       <c r="R844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845">
@@ -49302,7 +49302,7 @@
         <v>0</v>
       </c>
       <c r="R872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873">
@@ -50814,7 +50814,7 @@
         <v>1</v>
       </c>
       <c r="R899" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900">
@@ -59214,7 +59214,7 @@
         <v>2</v>
       </c>
       <c r="R1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050">
@@ -63022,7 +63022,7 @@
         <v>2</v>
       </c>
       <c r="R1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118">
@@ -66718,7 +66718,7 @@
         <v>2</v>
       </c>
       <c r="R1183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184">
@@ -67502,7 +67502,7 @@
         <v>0</v>
       </c>
       <c r="R1197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198">
@@ -67950,7 +67950,7 @@
         <v>2</v>
       </c>
       <c r="R1205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206">
@@ -69182,7 +69182,7 @@
         <v>0</v>
       </c>
       <c r="R1227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228">
@@ -71310,7 +71310,7 @@
         <v>2</v>
       </c>
       <c r="R1265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266">
@@ -71533,7 +71533,9 @@
       <c r="Q1269" t="n">
         <v>0</v>
       </c>
-      <c r="R1269" t="inlineStr"/>
+      <c r="R1269" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1270">
       <c r="A1270" s="2" t="n">
@@ -71587,7 +71589,9 @@
       <c r="Q1270" t="n">
         <v>0</v>
       </c>
-      <c r="R1270" t="inlineStr"/>
+      <c r="R1270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1271">
       <c r="A1271" s="2" t="n">
@@ -71641,7 +71645,9 @@
       <c r="Q1271" t="n">
         <v>0</v>
       </c>
-      <c r="R1271" t="inlineStr"/>
+      <c r="R1271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1272">
       <c r="A1272" s="2" t="n">
@@ -71695,7 +71701,9 @@
       <c r="Q1272" t="n">
         <v>0</v>
       </c>
-      <c r="R1272" t="inlineStr"/>
+      <c r="R1272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1273">
       <c r="A1273" s="2" t="n">
@@ -71749,7 +71757,9 @@
       <c r="Q1273" t="n">
         <v>0</v>
       </c>
-      <c r="R1273" t="inlineStr"/>
+      <c r="R1273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1274">
       <c r="A1274" s="2" t="n">
@@ -71803,7 +71813,9 @@
       <c r="Q1274" t="n">
         <v>0</v>
       </c>
-      <c r="R1274" t="inlineStr"/>
+      <c r="R1274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1275">
       <c r="A1275" s="2" t="n">
@@ -71857,7 +71869,9 @@
       <c r="Q1275" t="n">
         <v>0</v>
       </c>
-      <c r="R1275" t="inlineStr"/>
+      <c r="R1275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1276">
       <c r="A1276" s="2" t="n">
@@ -71911,7 +71925,9 @@
       <c r="Q1276" t="n">
         <v>0</v>
       </c>
-      <c r="R1276" t="inlineStr"/>
+      <c r="R1276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1277">
       <c r="A1277" s="2" t="n">
@@ -71965,7 +71981,9 @@
       <c r="Q1277" t="n">
         <v>0</v>
       </c>
-      <c r="R1277" t="inlineStr"/>
+      <c r="R1277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1278">
       <c r="A1278" s="2" t="n">
@@ -72019,7 +72037,9 @@
       <c r="Q1278" t="n">
         <v>0</v>
       </c>
-      <c r="R1278" t="inlineStr"/>
+      <c r="R1278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1279">
       <c r="A1279" s="2" t="n">
@@ -72073,7 +72093,9 @@
       <c r="Q1279" t="n">
         <v>0</v>
       </c>
-      <c r="R1279" t="inlineStr"/>
+      <c r="R1279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1280">
       <c r="A1280" s="2" t="n">
@@ -72127,7 +72149,9 @@
       <c r="Q1280" t="n">
         <v>0</v>
       </c>
-      <c r="R1280" t="inlineStr"/>
+      <c r="R1280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1281">
       <c r="A1281" s="2" t="n">
@@ -72181,7 +72205,9 @@
       <c r="Q1281" t="n">
         <v>0</v>
       </c>
-      <c r="R1281" t="inlineStr"/>
+      <c r="R1281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1282">
       <c r="A1282" s="2" t="n">
@@ -72235,7 +72261,9 @@
       <c r="Q1282" t="n">
         <v>0</v>
       </c>
-      <c r="R1282" t="inlineStr"/>
+      <c r="R1282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1283">
       <c r="A1283" s="2" t="n">
@@ -72289,7 +72317,9 @@
       <c r="Q1283" t="n">
         <v>0</v>
       </c>
-      <c r="R1283" t="inlineStr"/>
+      <c r="R1283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1284">
       <c r="A1284" s="2" t="n">
@@ -72343,7 +72373,9 @@
       <c r="Q1284" t="n">
         <v>0</v>
       </c>
-      <c r="R1284" t="inlineStr"/>
+      <c r="R1284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1285">
       <c r="A1285" s="2" t="n">
@@ -72397,7 +72429,9 @@
       <c r="Q1285" t="n">
         <v>0</v>
       </c>
-      <c r="R1285" t="inlineStr"/>
+      <c r="R1285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1286">
       <c r="A1286" s="2" t="n">
@@ -72451,7 +72485,9 @@
       <c r="Q1286" t="n">
         <v>0</v>
       </c>
-      <c r="R1286" t="inlineStr"/>
+      <c r="R1286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1287">
       <c r="A1287" s="2" t="n">
@@ -72505,7 +72541,9 @@
       <c r="Q1287" t="n">
         <v>0</v>
       </c>
-      <c r="R1287" t="inlineStr"/>
+      <c r="R1287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1288">
       <c r="A1288" s="2" t="n">
@@ -72559,7 +72597,9 @@
       <c r="Q1288" t="n">
         <v>0</v>
       </c>
-      <c r="R1288" t="inlineStr"/>
+      <c r="R1288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1289">
       <c r="A1289" s="2" t="n">
@@ -72613,7 +72653,9 @@
       <c r="Q1289" t="n">
         <v>0</v>
       </c>
-      <c r="R1289" t="inlineStr"/>
+      <c r="R1289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1290">
       <c r="A1290" s="2" t="n">
@@ -72667,7 +72709,9 @@
       <c r="Q1290" t="n">
         <v>0</v>
       </c>
-      <c r="R1290" t="inlineStr"/>
+      <c r="R1290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1291">
       <c r="A1291" s="2" t="n">
@@ -72721,7 +72765,9 @@
       <c r="Q1291" t="n">
         <v>0</v>
       </c>
-      <c r="R1291" t="inlineStr"/>
+      <c r="R1291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1292">
       <c r="A1292" s="2" t="n">
@@ -72775,7 +72821,9 @@
       <c r="Q1292" t="n">
         <v>0</v>
       </c>
-      <c r="R1292" t="inlineStr"/>
+      <c r="R1292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1293">
       <c r="A1293" s="2" t="n">
@@ -72829,7 +72877,9 @@
       <c r="Q1293" t="n">
         <v>0</v>
       </c>
-      <c r="R1293" t="inlineStr"/>
+      <c r="R1293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1294">
       <c r="A1294" s="2" t="n">
@@ -72883,7 +72933,9 @@
       <c r="Q1294" t="n">
         <v>0</v>
       </c>
-      <c r="R1294" t="inlineStr"/>
+      <c r="R1294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1295">
       <c r="A1295" s="2" t="n">
@@ -72937,7 +72989,9 @@
       <c r="Q1295" t="n">
         <v>0</v>
       </c>
-      <c r="R1295" t="inlineStr"/>
+      <c r="R1295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1296">
       <c r="A1296" s="2" t="n">
@@ -72991,7 +73045,9 @@
       <c r="Q1296" t="n">
         <v>0</v>
       </c>
-      <c r="R1296" t="inlineStr"/>
+      <c r="R1296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1297">
       <c r="A1297" s="2" t="n">
@@ -73045,7 +73101,9 @@
       <c r="Q1297" t="n">
         <v>0</v>
       </c>
-      <c r="R1297" t="inlineStr"/>
+      <c r="R1297" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1298">
       <c r="A1298" s="2" t="n">
@@ -73099,7 +73157,9 @@
       <c r="Q1298" t="n">
         <v>0</v>
       </c>
-      <c r="R1298" t="inlineStr"/>
+      <c r="R1298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1299">
       <c r="A1299" s="2" t="n">
@@ -73153,7 +73213,9 @@
       <c r="Q1299" t="n">
         <v>0</v>
       </c>
-      <c r="R1299" t="inlineStr"/>
+      <c r="R1299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1300">
       <c r="A1300" s="2" t="n">
@@ -73207,7 +73269,9 @@
       <c r="Q1300" t="n">
         <v>0</v>
       </c>
-      <c r="R1300" t="inlineStr"/>
+      <c r="R1300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1301">
       <c r="A1301" s="2" t="n">
@@ -73261,7 +73325,9 @@
       <c r="Q1301" t="n">
         <v>0</v>
       </c>
-      <c r="R1301" t="inlineStr"/>
+      <c r="R1301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1302">
       <c r="A1302" s="2" t="n">
@@ -73315,7 +73381,9 @@
       <c r="Q1302" t="n">
         <v>0</v>
       </c>
-      <c r="R1302" t="inlineStr"/>
+      <c r="R1302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1303">
       <c r="A1303" s="2" t="n">
@@ -73369,7 +73437,9 @@
       <c r="Q1303" t="n">
         <v>0</v>
       </c>
-      <c r="R1303" t="inlineStr"/>
+      <c r="R1303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1304">
       <c r="A1304" s="2" t="n">
@@ -73423,7 +73493,9 @@
       <c r="Q1304" t="n">
         <v>0</v>
       </c>
-      <c r="R1304" t="inlineStr"/>
+      <c r="R1304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1305">
       <c r="A1305" s="2" t="n">
@@ -73477,7 +73549,9 @@
       <c r="Q1305" t="n">
         <v>0</v>
       </c>
-      <c r="R1305" t="inlineStr"/>
+      <c r="R1305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1306">
       <c r="A1306" s="2" t="n">
@@ -73531,7 +73605,9 @@
       <c r="Q1306" t="n">
         <v>0</v>
       </c>
-      <c r="R1306" t="inlineStr"/>
+      <c r="R1306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1307">
       <c r="A1307" s="2" t="n">
@@ -73585,7 +73661,9 @@
       <c r="Q1307" t="n">
         <v>0</v>
       </c>
-      <c r="R1307" t="inlineStr"/>
+      <c r="R1307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1308">
       <c r="A1308" s="2" t="n">
@@ -73639,7 +73717,9 @@
       <c r="Q1308" t="n">
         <v>0</v>
       </c>
-      <c r="R1308" t="inlineStr"/>
+      <c r="R1308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1309">
       <c r="A1309" s="2" t="n">
@@ -73693,7 +73773,9 @@
       <c r="Q1309" t="n">
         <v>0</v>
       </c>
-      <c r="R1309" t="inlineStr"/>
+      <c r="R1309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1310">
       <c r="A1310" s="2" t="n">
@@ -73747,7 +73829,9 @@
       <c r="Q1310" t="n">
         <v>0</v>
       </c>
-      <c r="R1310" t="inlineStr"/>
+      <c r="R1310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1311">
       <c r="A1311" s="2" t="n">
@@ -73801,7 +73885,9 @@
       <c r="Q1311" t="n">
         <v>0</v>
       </c>
-      <c r="R1311" t="inlineStr"/>
+      <c r="R1311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1312">
       <c r="A1312" s="2" t="n">
@@ -73855,7 +73941,9 @@
       <c r="Q1312" t="n">
         <v>0</v>
       </c>
-      <c r="R1312" t="inlineStr"/>
+      <c r="R1312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1313">
       <c r="A1313" s="2" t="n">
@@ -73909,7 +73997,9 @@
       <c r="Q1313" t="n">
         <v>0</v>
       </c>
-      <c r="R1313" t="inlineStr"/>
+      <c r="R1313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1314">
       <c r="A1314" s="2" t="n">
@@ -73963,7 +74053,9 @@
       <c r="Q1314" t="n">
         <v>0</v>
       </c>
-      <c r="R1314" t="inlineStr"/>
+      <c r="R1314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1315">
       <c r="A1315" s="2" t="n">
@@ -74017,7 +74109,9 @@
       <c r="Q1315" t="n">
         <v>0</v>
       </c>
-      <c r="R1315" t="inlineStr"/>
+      <c r="R1315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1316">
       <c r="A1316" s="2" t="n">
@@ -74071,7 +74165,9 @@
       <c r="Q1316" t="n">
         <v>0</v>
       </c>
-      <c r="R1316" t="inlineStr"/>
+      <c r="R1316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1317">
       <c r="A1317" s="2" t="n">
@@ -74125,7 +74221,1251 @@
       <c r="Q1317" t="n">
         <v>0</v>
       </c>
-      <c r="R1317" t="inlineStr"/>
+      <c r="R1317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>2550</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>2594.75</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>2501</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>2550</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>2550</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>562529</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1318" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1318" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>2550</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>2555.75</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>2488.5</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>488935</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1319" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>2518</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>2561.949951171875</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>2511.75</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>2551.14990234375</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>2551.14990234375</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>105769</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1320" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>2574.85009765625</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>2578.85009765625</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>2421</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>2462.89990234375</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>2462.89990234375</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>535328</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1321" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>2460</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>2472.14990234375</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>2402</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>2433.14990234375</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>2433.14990234375</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>279317</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1322" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>2465</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>2473.550048828125</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>2420.699951171875</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>2462.800048828125</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>2462.800048828125</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>360009</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1323" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>2469.949951171875</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>2473.35009765625</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>2408.89990234375</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>2408.89990234375</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>236724</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1324" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>2413</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>2425.449951171875</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>2361.699951171875</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>2373.449951171875</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>2373.449951171875</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>279067</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1325" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>2373.449951171875</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>2394</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>2351.800048828125</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>2369.199951171875</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>2369.199951171875</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>100805</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1326" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>2379.949951171875</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>2387.64990234375</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>2300</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>2308.14990234375</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>2308.14990234375</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>158104</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1327" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>2308.14990234375</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>2332</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>2283.199951171875</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>2297.60009765625</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>2297.60009765625</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>286532</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1328" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>2307.550048828125</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>2335.300048828125</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>2276.449951171875</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>2284.14990234375</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>2284.14990234375</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>250209</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1329" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1329" t="inlineStr"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>2280</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>2288.800048828125</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>2234.14990234375</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>2242</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>2242</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>284801</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>2245.050048828125</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>2312</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>2245.050048828125</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>2263.25</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>2263.25</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>227007</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>2251.050048828125</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>2274.449951171875</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>2244</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>2253.949951171875</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>2253.949951171875</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>202738</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>2253.949951171875</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>2287.60009765625</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>2244.10009765625</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>2278.85009765625</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>2278.85009765625</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>180507</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>2300.949951171875</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>2320.949951171875</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>2255.75</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>2309.39990234375</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>2309.39990234375</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>691659</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1334" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>2309.699951171875</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>2355.64990234375</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>2309.699951171875</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>2334.14990234375</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>2334.14990234375</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>380827</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1335" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>2340.39990234375</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>2380.949951171875</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>2324.800048828125</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>2367.14990234375</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>2367.14990234375</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>190150</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>2389</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>2394.60009765625</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>2335</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>2341.39990234375</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>2341.39990234375</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>268139</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>2344.699951171875</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>2355.89990234375</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>2323.050048828125</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>2344.89990234375</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>2344.89990234375</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>98585</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>2344.89990234375</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>2449</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>2251</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>2362.800048828125</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>2362.800048828125</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>174198</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>2356</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>2387.699951171875</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>2339.10009765625</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>2357.550048828125</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>2357.550048828125</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>143183</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/INDIAMART.NS.xlsx
+++ b/stock_historical_data/1d/INDIAMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1340"/>
+  <dimension ref="A1:R1349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74277,7 +74277,9 @@
       <c r="Q1318" t="n">
         <v>0</v>
       </c>
-      <c r="R1318" t="inlineStr"/>
+      <c r="R1318" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1319">
       <c r="A1319" s="2" t="n">
@@ -74331,7 +74333,9 @@
       <c r="Q1319" t="n">
         <v>0</v>
       </c>
-      <c r="R1319" t="inlineStr"/>
+      <c r="R1319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1320">
       <c r="A1320" s="2" t="n">
@@ -74385,7 +74389,9 @@
       <c r="Q1320" t="n">
         <v>0</v>
       </c>
-      <c r="R1320" t="inlineStr"/>
+      <c r="R1320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1321">
       <c r="A1321" s="2" t="n">
@@ -74439,7 +74445,9 @@
       <c r="Q1321" t="n">
         <v>0</v>
       </c>
-      <c r="R1321" t="inlineStr"/>
+      <c r="R1321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1322">
       <c r="A1322" s="2" t="n">
@@ -74493,7 +74501,9 @@
       <c r="Q1322" t="n">
         <v>0</v>
       </c>
-      <c r="R1322" t="inlineStr"/>
+      <c r="R1322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1323">
       <c r="A1323" s="2" t="n">
@@ -74547,7 +74557,9 @@
       <c r="Q1323" t="n">
         <v>0</v>
       </c>
-      <c r="R1323" t="inlineStr"/>
+      <c r="R1323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1324">
       <c r="A1324" s="2" t="n">
@@ -74601,7 +74613,9 @@
       <c r="Q1324" t="n">
         <v>0</v>
       </c>
-      <c r="R1324" t="inlineStr"/>
+      <c r="R1324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1325">
       <c r="A1325" s="2" t="n">
@@ -74655,7 +74669,9 @@
       <c r="Q1325" t="n">
         <v>0</v>
       </c>
-      <c r="R1325" t="inlineStr"/>
+      <c r="R1325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1326">
       <c r="A1326" s="2" t="n">
@@ -74709,7 +74725,9 @@
       <c r="Q1326" t="n">
         <v>0</v>
       </c>
-      <c r="R1326" t="inlineStr"/>
+      <c r="R1326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1327">
       <c r="A1327" s="2" t="n">
@@ -74763,7 +74781,9 @@
       <c r="Q1327" t="n">
         <v>0</v>
       </c>
-      <c r="R1327" t="inlineStr"/>
+      <c r="R1327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1328">
       <c r="A1328" s="2" t="n">
@@ -74817,7 +74837,9 @@
       <c r="Q1328" t="n">
         <v>0</v>
       </c>
-      <c r="R1328" t="inlineStr"/>
+      <c r="R1328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1329">
       <c r="A1329" s="2" t="n">
@@ -74871,7 +74893,9 @@
       <c r="Q1329" t="n">
         <v>0</v>
       </c>
-      <c r="R1329" t="inlineStr"/>
+      <c r="R1329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1330">
       <c r="A1330" s="2" t="n">
@@ -74925,7 +74949,9 @@
       <c r="Q1330" t="n">
         <v>0</v>
       </c>
-      <c r="R1330" t="inlineStr"/>
+      <c r="R1330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1331">
       <c r="A1331" s="2" t="n">
@@ -74979,7 +75005,9 @@
       <c r="Q1331" t="n">
         <v>0</v>
       </c>
-      <c r="R1331" t="inlineStr"/>
+      <c r="R1331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1332">
       <c r="A1332" s="2" t="n">
@@ -75033,7 +75061,9 @@
       <c r="Q1332" t="n">
         <v>0</v>
       </c>
-      <c r="R1332" t="inlineStr"/>
+      <c r="R1332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" s="2" t="n">
@@ -75087,7 +75117,9 @@
       <c r="Q1333" t="n">
         <v>0</v>
       </c>
-      <c r="R1333" t="inlineStr"/>
+      <c r="R1333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" s="2" t="n">
@@ -75141,7 +75173,9 @@
       <c r="Q1334" t="n">
         <v>0</v>
       </c>
-      <c r="R1334" t="inlineStr"/>
+      <c r="R1334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" s="2" t="n">
@@ -75195,7 +75229,9 @@
       <c r="Q1335" t="n">
         <v>0</v>
       </c>
-      <c r="R1335" t="inlineStr"/>
+      <c r="R1335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" s="2" t="n">
@@ -75249,7 +75285,9 @@
       <c r="Q1336" t="n">
         <v>0</v>
       </c>
-      <c r="R1336" t="inlineStr"/>
+      <c r="R1336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" s="2" t="n">
@@ -75303,7 +75341,9 @@
       <c r="Q1337" t="n">
         <v>0</v>
       </c>
-      <c r="R1337" t="inlineStr"/>
+      <c r="R1337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" s="2" t="n">
@@ -75357,7 +75397,9 @@
       <c r="Q1338" t="n">
         <v>0</v>
       </c>
-      <c r="R1338" t="inlineStr"/>
+      <c r="R1338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" s="2" t="n">
@@ -75403,7 +75445,7 @@
         <v>49</v>
       </c>
       <c r="O1339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1339" t="n">
         <v>0</v>
@@ -75411,7 +75453,9 @@
       <c r="Q1339" t="n">
         <v>0</v>
       </c>
-      <c r="R1339" t="inlineStr"/>
+      <c r="R1339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" s="2" t="n">
@@ -75465,7 +75509,495 @@
       <c r="Q1340" t="n">
         <v>0</v>
       </c>
-      <c r="R1340" t="inlineStr"/>
+      <c r="R1340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>2360</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>2378.199951171875</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>2352</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>2365.39990234375</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>2365.39990234375</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>107184</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>2387.949951171875</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>2387.949951171875</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>2349.25</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>2367.60009765625</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>2367.60009765625</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>103890</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>2369.800048828125</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>2379.949951171875</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>2350</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>2357.85009765625</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>2357.85009765625</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>135928</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>2357.85009765625</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>2378</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>2357</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>2371.14990234375</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>2371.14990234375</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>103487</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>2371</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>2405.64990234375</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>2361.199951171875</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>2377.35009765625</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>2377.35009765625</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>160737</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1345" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>2380</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>2409.949951171875</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>2377.35009765625</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>2398.699951171875</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>2398.699951171875</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>194339</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1346" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>2398.949951171875</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>2409</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>2328</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>2331.35009765625</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>2331.35009765625</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>255332</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1347" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>2339.199951171875</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>2390.949951171875</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>2300.550048828125</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>2385.550048828125</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>2385.550048828125</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>164204</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1348" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>2385.550048828125</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>2401.5</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>2371.10009765625</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>2377.949951171875</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>2377.949951171875</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>114407</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1349" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1349" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/INDIAMART.NS.xlsx
+++ b/stock_historical_data/1d/INDIAMART.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1349"/>
+  <dimension ref="A1:R1373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75565,7 +75565,9 @@
       <c r="Q1341" t="n">
         <v>0</v>
       </c>
-      <c r="R1341" t="inlineStr"/>
+      <c r="R1341" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1342">
       <c r="A1342" s="2" t="n">
@@ -75619,7 +75621,9 @@
       <c r="Q1342" t="n">
         <v>0</v>
       </c>
-      <c r="R1342" t="inlineStr"/>
+      <c r="R1342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" s="2" t="n">
@@ -75673,7 +75677,9 @@
       <c r="Q1343" t="n">
         <v>0</v>
       </c>
-      <c r="R1343" t="inlineStr"/>
+      <c r="R1343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" s="2" t="n">
@@ -75727,7 +75733,9 @@
       <c r="Q1344" t="n">
         <v>0</v>
       </c>
-      <c r="R1344" t="inlineStr"/>
+      <c r="R1344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" s="2" t="n">
@@ -75781,7 +75789,9 @@
       <c r="Q1345" t="n">
         <v>0</v>
       </c>
-      <c r="R1345" t="inlineStr"/>
+      <c r="R1345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" s="2" t="n">
@@ -75835,7 +75845,9 @@
       <c r="Q1346" t="n">
         <v>0</v>
       </c>
-      <c r="R1346" t="inlineStr"/>
+      <c r="R1346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1347">
       <c r="A1347" s="2" t="n">
@@ -75889,7 +75901,9 @@
       <c r="Q1347" t="n">
         <v>0</v>
       </c>
-      <c r="R1347" t="inlineStr"/>
+      <c r="R1347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" s="2" t="n">
@@ -75943,7 +75957,9 @@
       <c r="Q1348" t="n">
         <v>0</v>
       </c>
-      <c r="R1348" t="inlineStr"/>
+      <c r="R1348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" s="2" t="n">
@@ -75997,7 +76013,1257 @@
       <c r="Q1349" t="n">
         <v>0</v>
       </c>
-      <c r="R1349" t="inlineStr"/>
+      <c r="R1349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>2399</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>2361.800048828125</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>2367.199951171875</v>
+      </c>
+      <c r="F1350" t="inlineStr"/>
+      <c r="G1350" t="n">
+        <v>138887</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1350" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>2367.949951171875</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>2389.64990234375</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>2346.10009765625</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>2359.89990234375</v>
+      </c>
+      <c r="F1351" t="inlineStr"/>
+      <c r="G1351" t="n">
+        <v>253905</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1351" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>2322</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>2370</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>2322</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>2363.39990234375</v>
+      </c>
+      <c r="F1352" t="inlineStr"/>
+      <c r="G1352" t="n">
+        <v>171380</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1352" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>2360</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>2373</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>2242.75</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>2249.949951171875</v>
+      </c>
+      <c r="F1353" t="inlineStr"/>
+      <c r="G1353" t="n">
+        <v>272969</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1353" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>2265</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>2275.5</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>2241.85009765625</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>2252.199951171875</v>
+      </c>
+      <c r="F1354" t="inlineStr"/>
+      <c r="G1354" t="n">
+        <v>161773</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>2259.949951171875</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>2275</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>2235.60009765625</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>2245.449951171875</v>
+      </c>
+      <c r="F1355" t="inlineStr"/>
+      <c r="G1355" t="n">
+        <v>143630</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>2250</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>2251.85009765625</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>2199.89990234375</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>2231.5</v>
+      </c>
+      <c r="F1356" t="inlineStr"/>
+      <c r="G1356" t="n">
+        <v>288582</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>2234</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>2271.75</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>2230</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>2256.35009765625</v>
+      </c>
+      <c r="F1357" t="inlineStr"/>
+      <c r="G1357" t="n">
+        <v>280034</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>2262</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>2282</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>2244</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>2268.800048828125</v>
+      </c>
+      <c r="F1358" t="inlineStr"/>
+      <c r="G1358" t="n">
+        <v>481181</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>2268.800048828125</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>2275</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>2226.14990234375</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>2248.800048828125</v>
+      </c>
+      <c r="F1359" t="inlineStr"/>
+      <c r="G1359" t="n">
+        <v>270289</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>2254.85009765625</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>2291.85009765625</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>2245.14990234375</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>2284.800048828125</v>
+      </c>
+      <c r="F1360" t="inlineStr"/>
+      <c r="G1360" t="n">
+        <v>75411</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>2288</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>2310.449951171875</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>2275.050048828125</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>2307.75</v>
+      </c>
+      <c r="F1361" t="inlineStr"/>
+      <c r="G1361" t="n">
+        <v>54293</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>2319</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>2338.050048828125</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>2244.449951171875</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>2250.39990234375</v>
+      </c>
+      <c r="F1362" t="inlineStr"/>
+      <c r="G1362" t="n">
+        <v>236058</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>2273.050048828125</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>2275</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>2165.550048828125</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>2176.449951171875</v>
+      </c>
+      <c r="F1363" t="inlineStr"/>
+      <c r="G1363" t="n">
+        <v>295756</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>2218</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>2312.699951171875</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>2188.89990234375</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>2293.550048828125</v>
+      </c>
+      <c r="F1364" t="inlineStr"/>
+      <c r="G1364" t="n">
+        <v>671612</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>2301</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>2316</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>2272.75</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>2299.64990234375</v>
+      </c>
+      <c r="F1365" t="inlineStr"/>
+      <c r="G1365" t="n">
+        <v>254717</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>2301</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>2371</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>2295.050048828125</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>2322.300048828125</v>
+      </c>
+      <c r="F1366" t="inlineStr"/>
+      <c r="G1366" t="n">
+        <v>239180</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>2315.050048828125</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>2339.35009765625</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>2279.10009765625</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>2325.14990234375</v>
+      </c>
+      <c r="F1367" t="inlineStr"/>
+      <c r="G1367" t="n">
+        <v>214208</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>2314.10009765625</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>2314.949951171875</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>2234.10009765625</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>2242.699951171875</v>
+      </c>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="n">
+        <v>144279</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>2245.35009765625</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>2290.39990234375</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>2228.25</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>2254.699951171875</v>
+      </c>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="n">
+        <v>350675</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>2266</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>2278.60009765625</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>2198</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>2209.64990234375</v>
+      </c>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="n">
+        <v>263290</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>2220.699951171875</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>2254.35009765625</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>2213.14990234375</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>2239.050048828125</v>
+      </c>
+      <c r="F1371" t="inlineStr"/>
+      <c r="G1371" t="n">
+        <v>221073</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>2245</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>2290</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>2224.699951171875</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>2282.60009765625</v>
+      </c>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="n">
+        <v>249982</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>2286</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>2311.449951171875</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>2239.10009765625</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>2270</v>
+      </c>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="n">
+        <v>210157</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1373" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
